--- a/Documents/Testing Strategy.xlsx
+++ b/Documents/Testing Strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Desktop\McastProspectus_App\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1B2908-E76A-4B4C-9477-1AC76E614FFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5807CD04-AA36-4F84-8007-390E44D230C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DA2CF1E7-CB2B-014E-BF37-E26721C9BC41}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DA2CF1E7-CB2B-014E-BF37-E26721C9BC41}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-05-06" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
   <si>
     <t>Page</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Home</t>
   </si>
   <si>
-    <t>Repeat items from previous tests that are not marked in green.</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -161,13 +158,43 @@
   </si>
   <si>
     <t>A console.log shows that this function works</t>
+  </si>
+  <si>
+    <t>click on more info button (changed to show gallery)</t>
+  </si>
+  <si>
+    <t>The page changes and the galary of images is seen</t>
+  </si>
+  <si>
+    <t>the page of course list loads but the color of the institute does change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the institute page is loaded </t>
+  </si>
+  <si>
+    <t>had to remove feature couldn’t find a solution</t>
+  </si>
+  <si>
+    <t>the course page is loaded withh all the info</t>
+  </si>
+  <si>
+    <t>The course list page is loaded</t>
+  </si>
+  <si>
+    <t>the data is the same like the json file</t>
+  </si>
+  <si>
+    <t>the data changes when the json file is connected</t>
+  </si>
+  <si>
+    <t>the institute, course list and course pages are connected well with the json file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +248,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -248,9 +281,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -261,6 +291,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,11 +612,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB90A20A-624A-8B44-BFDC-8599FE04F71F}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.3984375" style="1" customWidth="1"/>
@@ -593,7 +626,7 @@
     <col min="6" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="19.05" customHeight="1">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -607,261 +640,261 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="115.05" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="115.05" customHeight="1">
+    <row r="19" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="115.05" customHeight="1">
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="24.6" customHeight="1"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -870,22 +903,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC74476-7C07-0E40-8524-9341D14CC951}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.69921875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="43.296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.296875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="19.05" customHeight="1">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -899,19 +933,129 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="115.05" customHeight="1">
-      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="115.05" customHeight="1"/>
-    <row r="4" spans="1:5" ht="115.05" customHeight="1"/>
-    <row r="5" spans="1:5" ht="115.05" customHeight="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="115.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
